--- a/src/main/resources/upload/资产列表.xlsx
+++ b/src/main/resources/upload/资产列表.xlsx
@@ -837,7 +837,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
